--- a/data/trans_bre/DCD-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Provincia-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>15.6298272487842</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.814623237761969</v>
+        <v>7.814623237761968</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>3.927406646399588</v>
@@ -627,7 +627,7 @@
         <v>2.66902946672123</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8328421534112874</v>
+        <v>0.8328421534112871</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.331806615516122</v>
+        <v>9.211616831874279</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.48319558141367</v>
+        <v>10.00543921927882</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.229360779616555</v>
+        <v>3.346635226703736</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.463007406212425</v>
+        <v>1.778500073894113</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.185934128947082</v>
+        <v>1.113535119897198</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2552603797976585</v>
+        <v>0.2927569390113456</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.77274540343366</v>
+        <v>20.12199794883685</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.68126253452388</v>
+        <v>21.31955935008831</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.42483594548386</v>
+        <v>12.07593333911343</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9.424926653506045</v>
+        <v>9.210769015451072</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.737836832291515</v>
+        <v>5.615416608452557</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.742874222488534</v>
+        <v>1.771175283748739</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.009244985192194</v>
+        <v>4.699727353463723</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1716104434260269</v>
+        <v>0.2075056951377302</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10.61314297795261</v>
+        <v>10.69614883627359</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6476912650927514</v>
+        <v>0.5661980705210359</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01021014050104094</v>
+        <v>0.01494304313211066</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7222651222242296</v>
+        <v>0.7278380982420667</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.86915257553174</v>
+        <v>12.43373887799835</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.969109638196442</v>
+        <v>6.326859662498251</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19.80467837828693</v>
+        <v>19.6692335648721</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.127365773546319</v>
+        <v>2.975180059470862</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.967349618028848</v>
+        <v>2.032299211571919</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.115704933157944</v>
+        <v>2.119589038984826</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.573358435638331</v>
+        <v>2.7607145957027</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.169532458578671</v>
+        <v>2.86369916469993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.942825941398304</v>
+        <v>5.893119721000875</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.2964467171736415</v>
+        <v>0.3176620508600134</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4408222919427333</v>
+        <v>0.3928033104985805</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3110032954659523</v>
+        <v>0.3220646704875544</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.7234831866946</v>
+        <v>11.96788508250526</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.01923731313643</v>
+        <v>12.16319458891738</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.71137290074035</v>
+        <v>15.88167901281739</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.042896088916918</v>
+        <v>3.363802241177608</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.142143425228731</v>
+        <v>3.55702212701449</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.249735275949244</v>
+        <v>1.266109497050024</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.678997532702412</v>
+        <v>6.8455959679314</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.966746015725959</v>
+        <v>3.415013436358188</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.000020770741619</v>
+        <v>8.052707218600865</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.6814850650740982</v>
+        <v>0.67895520331145</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3325972039500779</v>
+        <v>0.3038059733861362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4683410348388725</v>
+        <v>0.4684746619081999</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.92882537661666</v>
+        <v>16.69622302126036</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.71866947666484</v>
+        <v>13.70663380082732</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18.92836580742921</v>
+        <v>18.87843485808644</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.023304756130733</v>
+        <v>3.074985408482667</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.991881120120722</v>
+        <v>2.069985322968773</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.838947935100797</v>
+        <v>1.805587230994419</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>11.02112101694839</v>
+        <v>10.74356136188404</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.105892921982054</v>
+        <v>2.485924941448134</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.106810834197805</v>
+        <v>4.992777586822843</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.5668177328017366</v>
+        <v>0.6118999452436923</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1690367232670134</v>
+        <v>0.1426676024095114</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4073823298032985</v>
+        <v>0.3834388957203553</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>26.88128029728317</v>
+        <v>27.51338811439938</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.89994114501978</v>
+        <v>15.37483743528767</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.66927212612347</v>
+        <v>15.13904790385388</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.63065451756913</v>
+        <v>2.769548608780759</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.602316460737323</v>
+        <v>2.629226396758408</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.221741693995479</v>
+        <v>2.15831043398585</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>6.299567831554838</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14.42803727620803</v>
+        <v>14.42803727620801</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4872195817880764</v>
@@ -1037,7 +1037,7 @@
         <v>0.8798565791507561</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7869468899136113</v>
+        <v>0.7869468899136104</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.7277052214744518</v>
+        <v>-0.688242051111067</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5221516024501027</v>
+        <v>1.120627982554496</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8.30063567781079</v>
+        <v>8.262676866487645</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.06227169701254898</v>
+        <v>-0.0523023268040184</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01563094642953848</v>
+        <v>0.07104786626003488</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3821209516096088</v>
+        <v>0.3748044070447785</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.95759746096122</v>
+        <v>10.98137206708282</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.23002299874662</v>
+        <v>11.76711446209169</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19.86761291548085</v>
+        <v>20.00502316279072</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.323876703128562</v>
+        <v>1.32312700290481</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.134133144458664</v>
+        <v>2.255652136336348</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.30148630294608</v>
+        <v>1.269026386893762</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>4.360653266468375</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20.18182700541917</v>
+        <v>20.18182700541916</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>1.544694471345579</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.065498995400996</v>
+        <v>6.057114300408935</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.241480917011822</v>
+        <v>1.14294123236361</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15.65035092332075</v>
+        <v>15.63641202029631</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.8018374225839541</v>
+        <v>0.8005760045781155</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.111619358334184</v>
+        <v>0.1026636100040395</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8402672495892414</v>
+        <v>0.8343814309080848</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.05918883084643</v>
+        <v>12.82042102063257</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.757215708553712</v>
+        <v>7.884848576362743</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24.29651357831702</v>
+        <v>24.19998605299612</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.660180672214926</v>
+        <v>2.724444563329699</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.19430426550223</v>
+        <v>1.203887897845448</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.784297798404693</v>
+        <v>1.772942833904703</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>4.577786024585116</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11.52240481377344</v>
+        <v>11.52240481377345</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>1.393815426045958</v>
@@ -1201,7 +1201,7 @@
         <v>0.6903631203282869</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.123669065811977</v>
+        <v>1.123669065811978</v>
       </c>
     </row>
     <row r="26">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.556243981818398</v>
+        <v>4.818012997825835</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.60089039448521</v>
+        <v>1.635884559684495</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8.498997138139826</v>
+        <v>8.362381047547997</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.6749458428058989</v>
+        <v>0.7202867390566573</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1989193755726085</v>
+        <v>0.1883046091593727</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7340448576421927</v>
+        <v>0.7007833159845256</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>10.2953683290461</v>
+        <v>10.58422645945919</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.726650972709605</v>
+        <v>7.693608595258194</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14.48269495103892</v>
+        <v>14.63480213029308</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.411599747394246</v>
+        <v>2.4201381082025</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.427530279639508</v>
+        <v>1.442547866293191</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.707817524427778</v>
+        <v>1.686325486196399</v>
       </c>
     </row>
     <row r="28">
@@ -1294,22 +1294,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.079510741260677</v>
+        <v>8.270487712896021</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.814562465748272</v>
+        <v>4.843351994755317</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12.05133336774585</v>
+        <v>12.15722255889905</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>1.093320192815816</v>
+        <v>1.124772895003243</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6413873410012666</v>
+        <v>0.6509245064370677</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8823372727201214</v>
+        <v>0.8860909273328826</v>
       </c>
     </row>
     <row r="30">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.12261120453878</v>
+        <v>11.20314533470729</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.649319168952053</v>
+        <v>7.781923213065438</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15.59491893536412</v>
+        <v>15.36411793667974</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1.833066491864138</v>
+        <v>1.863028058277412</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.228586685578247</v>
+        <v>1.27983718302036</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.290804517108208</v>
+        <v>1.265501239277248</v>
       </c>
     </row>
     <row r="31">
